--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4270,37 +4270,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4309,141 +4309,141 @@
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="196" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="198" t="s">
         <v>331</v>
       </c>
       <c r="B37" s="199"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="203" t="s">
         <v>350</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="201" t="s">
         <v>394</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="197" t="s">
         <v>324</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="197" t="s">
         <v>367</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="201" t="s">
         <v>388</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="201" t="s">
         <v>391</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="201" t="s">
         <v>357</v>
       </c>
@@ -4505,16 +4505,16 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="201"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="198" t="s">
         <v>337</v>
       </c>
       <c r="B46" s="199"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="203" t="s">
         <v>350</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="201" t="s">
         <v>394</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="197" t="s">
         <v>324</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="197" t="s">
         <v>367</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="201" t="s">
         <v>393</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="201" t="s">
         <v>389</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="201" t="s">
         <v>355</v>
       </c>
@@ -4570,37 +4570,37 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="198" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="198" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B62" s="202"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="200">
         <v>42</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>3.142*10^6</f>
         <v>3142000</v>
@@ -4635,14 +4635,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
         <v>387</v>
       </c>
@@ -4749,8 +4749,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4804,12 +4804,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5029,17 +5029,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>380</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>378</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8542,12 +8542,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -8999,12 +8999,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9795,12 +9795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11269,8 +11269,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
@@ -11310,37 +11310,37 @@
       <c r="AJ78" s="208"/>
       <c r="AK78" s="208"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>373</v>
       </c>
@@ -11360,40 +11360,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
-    <col min="11" max="11" width="10.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="22"/>
-    <col min="15" max="15" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="22"/>
-    <col min="19" max="19" width="10.42578125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="22"/>
-    <col min="23" max="23" width="10.7109375" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="33.1328125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="22"/>
+    <col min="11" max="11" width="10.3984375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1328125" style="22"/>
+    <col min="15" max="15" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1328125" style="22"/>
+    <col min="19" max="19" width="10.3984375" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.1328125" style="22"/>
+    <col min="23" max="23" width="10.73046875" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11441,7 +11441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11458,7 +11458,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11557,7 +11557,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11594,7 +11594,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11627,7 +11627,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11668,7 +11668,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11705,7 +11705,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11801,7 +11801,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11835,7 +11835,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11873,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11907,7 +11907,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -11941,7 +11941,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="68" t="s">
         <v>408</v>
       </c>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="70" t="s">
         <v>409</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12530,7 +12530,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12561,7 +12561,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
         <v>410</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13008,7 +13008,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13302,7 +13302,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13386,7 +13386,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13415,7 +13415,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13444,7 +13444,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="48" t="s">
         <v>411</v>
       </c>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13611,7 +13611,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="71" t="s">
         <v>412</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13770,7 +13770,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="118" t="s">
         <v>413</v>
       </c>
@@ -14012,7 +14012,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="123" t="s">
         <v>414</v>
       </c>
@@ -14038,12 +14038,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14058,7 +14058,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14076,7 +14076,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14296,13 +14296,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14311,7 +14311,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14470,17 +14470,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14498,7 +14498,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14519,7 +14519,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14532,7 +14532,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14552,7 +14552,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14595,7 +14595,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14627,7 +14627,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14659,7 +14659,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15054,7 +15054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15112,7 +15112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15128,7 +15128,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15138,7 +15138,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15150,7 +15150,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15194,7 +15194,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15216,7 +15216,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15238,7 +15238,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15260,7 +15260,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15282,7 +15282,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15292,7 +15292,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15336,7 +15336,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15359,7 +15359,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15382,7 +15382,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15405,7 +15405,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15428,7 +15428,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15439,7 +15439,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="22" t="s">
         <v>415</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="22" t="s">
         <v>416</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="22" t="s">
         <v>417</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="22" t="s">
         <v>418</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="22" t="s">
         <v>419</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="22" t="s">
         <v>420</v>
       </c>
@@ -15850,16 +15850,18 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -15966,7 +15968,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -16107,7 +16109,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -16248,7 +16250,7 @@
         <v>19887484000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -16389,7 +16391,7 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>341</v>
       </c>
@@ -16530,7 +16532,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -16637,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -16744,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -16851,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -16992,7 +16994,7 @@
         <v>17906000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -17133,7 +17135,7 @@
         <v>5023036000000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -17274,7 +17276,7 @@
         <v>5825000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -17415,7 +17417,7 @@
         <v>3989233000000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -17556,7 +17558,7 @@
         <v>5359000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -17697,7 +17699,7 @@
         <v>5670000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>348</v>
       </c>
@@ -17838,7 +17840,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -17945,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -18086,7 +18088,7 @@
         <v>12992301971719.6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -18227,7 +18229,7 @@
         <v>5676202000000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18368,7 +18370,7 @@
         <v>6287000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>370</v>
       </c>
@@ -18509,7 +18511,7 @@
         <v>91410000000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -18650,145 +18652,145 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>367</v>
       </c>
       <c r="B22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="C22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="D22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="E22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="F22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="G22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="H22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="I22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="J22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="K22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="L22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="M22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="N22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="O22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="P22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Q22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="R22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="S22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="T22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="U22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="V22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="W22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="X22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Y22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Z22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AA22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AB22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AC22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AD22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AE22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AF22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AG22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AH22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AI22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
     </row>
   </sheetData>
@@ -18803,16 +18805,18 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="2"/>
+    <col min="36" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>406</v>
       </c>
@@ -18919,7 +18923,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>353</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
@@ -19201,7 +19205,7 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>324</v>
       </c>
@@ -19342,7 +19346,7 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>359</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -19590,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -19697,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -19804,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -19945,7 +19949,7 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20086,7 +20090,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20227,7 +20231,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20368,7 +20372,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20509,7 +20513,7 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -20650,7 +20654,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -20791,7 +20795,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -20898,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -21039,7 +21043,7 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>368</v>
       </c>
@@ -21180,7 +21184,7 @@
         <v>5676202</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>369</v>
       </c>
@@ -21321,7 +21325,7 @@
         <v>6287000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>370</v>
       </c>
@@ -21462,7 +21466,7 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>371</v>
       </c>
@@ -21603,145 +21607,145 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="C22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="D22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="E22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="F22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="G22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="H22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="I22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="J22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="K22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="L22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="M22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="N22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="O22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="P22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Q22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="R22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="S22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="T22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="U22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="V22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="W22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="X22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Y22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Z22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AA22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AB22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AC22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AD22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AE22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AF22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AG22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AH22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AI22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
     </row>
   </sheetData>
@@ -21758,13 +21762,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.265625" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>405</v>
       </c>
@@ -21871,7 +21875,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -21978,7 +21982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22085,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22226,7 +22230,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22367,7 +22371,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22474,7 +22478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22581,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -22722,7 +22726,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -22829,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -22936,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -23057,14 +23061,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,14 @@
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1178,7 +1186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="436">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2131,9 +2139,6 @@
     <t>Relevant Conversion Factors</t>
   </si>
   <si>
-    <t>In the U.S. model:</t>
-  </si>
-  <si>
     <t>Petroleum Gasoline (fuel economy units)</t>
   </si>
   <si>
@@ -2176,30 +2181,12 @@
     <t>Large Fuel Output Units</t>
   </si>
   <si>
-    <t>millions of short tons</t>
-  </si>
-  <si>
-    <t>trillion cubic feet</t>
-  </si>
-  <si>
     <t>Fuel Economy Output Unit</t>
   </si>
   <si>
-    <t>miles per gallon</t>
-  </si>
-  <si>
-    <t>million barrels</t>
-  </si>
-  <si>
     <t>Small Fuel Output Units</t>
   </si>
   <si>
-    <t>short tons</t>
-  </si>
-  <si>
-    <t>thousand cubic feet</t>
-  </si>
-  <si>
     <t>BTU/MWh (pure unit conversion, not a heat rate)</t>
   </si>
   <si>
@@ -2227,9 +2214,6 @@
     <t>heat (not used)</t>
   </si>
   <si>
-    <t>gallons</t>
-  </si>
-  <si>
     <t>electricity, district heat</t>
   </si>
   <si>
@@ -2248,15 +2232,9 @@
     <t>nuclear fuel (uranium oxide)</t>
   </si>
   <si>
-    <t>million BTU</t>
-  </si>
-  <si>
     <t>nuclear fuel</t>
   </si>
   <si>
-    <t>trillion BTU</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -2350,15 +2328,9 @@
     <t>crude oil, heavy fuel oil</t>
   </si>
   <si>
-    <t>barrels</t>
-  </si>
-  <si>
     <t>LPG/propane/butane</t>
   </si>
   <si>
-    <t>million gallons</t>
-  </si>
-  <si>
     <t>petroleum gasoline, petroleum diesel, biofuel gasoline, biofuel diesel, jet fuel or kerosene, LPG/propane/butane</t>
   </si>
   <si>
@@ -2392,9 +2364,6 @@
     <t>Lignite, Biomass, LPG, municipal solid waste, hydrogen</t>
   </si>
   <si>
-    <t>Energy Import Export Output Unit (BTU/energy output unit)</t>
-  </si>
-  <si>
     <t>Conversion Factor (output fuel economy unit/(miles/BTU))</t>
   </si>
   <si>
@@ -2444,6 +2413,87 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>In the India model:</t>
+  </si>
+  <si>
+    <t>millions of metric tons</t>
+  </si>
+  <si>
+    <t>billion cubic meters</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>metric tons</t>
+  </si>
+  <si>
+    <t>cubic meters</t>
+  </si>
+  <si>
+    <t>liters</t>
+  </si>
+  <si>
+    <t>kilometers per liter</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>short tons per metric ton</t>
+  </si>
+  <si>
+    <t>cubic feet per cubic meter</t>
+  </si>
+  <si>
+    <t>kilometers per mile</t>
+  </si>
+  <si>
+    <t>liters per gallon</t>
+  </si>
+  <si>
+    <t>Gasoline kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Diesel 2D kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Kerosene (jet fuel) kg/cubic meter</t>
+  </si>
+  <si>
+    <t>barrels/cubic meter</t>
+  </si>
+  <si>
+    <t>J per BTU</t>
+  </si>
+  <si>
+    <t>crude oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>heavy fuel oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>liter LPG/metric ton</t>
+  </si>
+  <si>
+    <t>Energy Import Export Output Unit (BTU/GJ)</t>
+  </si>
+  <si>
+    <t>https://www.ppac.gov.in/WriteReadData/Reports/201912230427051503735SnapshotofIndiasOilandGasdataNovember2019.pdf</t>
+  </si>
+  <si>
+    <t>India-US weight-volume conversions for liquid fuels</t>
+  </si>
+  <si>
+    <t>Ministry of Petroleum &amp; Natural Gas/Petroleum Planning &amp; Analysis Cell</t>
+  </si>
+  <si>
+    <t>Ready Reckoner: Snapshot of India's Oil &amp; Gas Data</t>
+  </si>
+  <si>
+    <t>Table 25, Page 22</t>
   </si>
 </sst>
 </file>
@@ -3468,7 +3518,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3867,6 +3917,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4266,93 +4317,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="37.3984375" customWidth="1"/>
     <col min="2" max="2" width="30.59765625" customWidth="1"/>
     <col min="3" max="3" width="39.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="196" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C6" s="202"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E6" s="196" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="202"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E8" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E10" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="196" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -4384,54 +4458,54 @@
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4439,70 +4513,70 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="198" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" s="199"/>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="203" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" s="203" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="204" t="s">
         <v>350</v>
-      </c>
-      <c r="B38" s="203" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="204" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="201" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="197" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="201" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="201" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="201" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="C44" s="204" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -4510,37 +4584,37 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="198" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B46" s="199"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="203" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B47" s="203" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="201" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="197" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>270</v>
@@ -4548,48 +4622,48 @@
     </row>
     <row r="51" spans="1:2" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="201" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="201" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="201" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="198" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="198" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -4614,12 +4688,120 @@
         <v>3142000</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <v>35.314700000000002</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <v>1.60934</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>748</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>849</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <v>808</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>881</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>905</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>1844</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>1055.06</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4628,11 +4810,11 @@
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4644,7 +4826,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C1" s="16">
         <v>2017</v>
@@ -4755,7 +4937,7 @@
         <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -4766,7 +4948,7 @@
         <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4779,7 +4961,7 @@
         <v>118</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -4791,7 +4973,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -4916,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6965,7 +7147,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C33" s="14">
         <v>5.0566430000000002</v>
@@ -7188,10 +7370,10 @@
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C35" s="14">
         <v>5.2222799999999996</v>
@@ -7301,10 +7483,10 @@
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C36" s="14">
         <v>5.2222799999999996</v>
@@ -11271,44 +11453,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
@@ -11327,22 +11509,22 @@
     </row>
     <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -11358,7 +11540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11974,7 +12158,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="68" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B21" s="49">
         <v>129487.84757606639</v>
@@ -12088,7 +12272,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="70" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B25" s="49">
         <v>118237.434842673</v>
@@ -12742,7 +12926,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B47" s="49">
         <v>112060.7</v>
@@ -13529,7 +13713,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="48" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B75" s="49">
         <v>28385750.368920002</v>
@@ -13722,7 +13906,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="71" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B82" s="49">
         <v>15929000</v>
@@ -13980,7 +14164,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="118" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B92" s="119">
         <v>152370.90134048002</v>
@@ -14014,7 +14198,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="123" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B93" s="124">
         <v>144230</v>
@@ -15702,27 +15886,27 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="22" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B159" s="22">
         <v>1</v>
@@ -15742,7 +15926,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B160" s="22">
         <v>1E-3</v>
@@ -15762,7 +15946,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B161" s="22">
         <v>9.9999999999999995E-7</v>
@@ -15782,7 +15966,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B162" s="22">
         <v>3.2808398950131233E-3</v>
@@ -15802,7 +15986,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B163" s="22">
         <v>6.2137273664980671E-7</v>
@@ -15848,22 +16032,22 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView topLeftCell="U13" workbookViewId="0">
+    <sheetView topLeftCell="U10" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.86328125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -15970,7 +16154,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B2" s="5">
         <f>About!$A$64*10^6</f>
@@ -16111,430 +16295,430 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^12</f>
-        <v>19437477000000</v>
+        <f>'AEO Table 73'!C66*10^12*About!$A$66</f>
+        <v>21426125271870</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^12</f>
-        <v>19706896000000</v>
+        <f>'AEO Table 73'!D66*10^12*About!$A$66</f>
+        <v>21723108529760</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^12</f>
-        <v>19588093000000</v>
+        <f>'AEO Table 73'!E66*10^12*About!$A$66</f>
+        <v>21592150794830</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^12</f>
-        <v>19676338000000</v>
+        <f>'AEO Table 73'!F66*10^12*About!$A$66</f>
+        <v>21689424140780</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^12</f>
-        <v>19593861000000</v>
+        <f>'AEO Table 73'!G66*10^12*About!$A$66</f>
+        <v>21598508918910</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^12</f>
-        <v>19763271000000</v>
+        <f>'AEO Table 73'!H66*10^12*About!$A$66</f>
+        <v>21785251256009.996</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^12</f>
-        <v>19874037000000</v>
+        <f>'AEO Table 73'!I66*10^12*About!$A$66</f>
+        <v>21907349725469.996</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^12</f>
-        <v>19832983000000</v>
+        <f>'AEO Table 73'!J66*10^12*About!$A$66</f>
+        <v>21862095490729.996</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^12</f>
-        <v>19854052000000</v>
+        <f>'AEO Table 73'!K66*10^12*About!$A$66</f>
+        <v>21885320060119.996</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^12</f>
-        <v>19849159000000</v>
+        <f>'AEO Table 73'!L66*10^12*About!$A$66</f>
+        <v>21879926457289.996</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^12</f>
-        <v>19841606000000</v>
+        <f>'AEO Table 73'!M66*10^12*About!$A$66</f>
+        <v>21871600709859.996</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^12</f>
-        <v>19838451000000</v>
+        <f>'AEO Table 73'!N66*10^12*About!$A$66</f>
+        <v>21868122921809.996</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^12</f>
-        <v>19782232000000</v>
+        <f>'AEO Table 73'!O66*10^12*About!$A$66</f>
+        <v>21806152155919.996</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^12</f>
-        <v>19750866000000</v>
+        <f>'AEO Table 73'!P66*10^12*About!$A$66</f>
+        <v>21771577100459.996</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^12</f>
-        <v>19757530000000</v>
+        <f>'AEO Table 73'!Q66*10^12*About!$A$66</f>
+        <v>21778922894299.996</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^12</f>
-        <v>19792145000000</v>
+        <f>'AEO Table 73'!R66*10^12*About!$A$66</f>
+        <v>21817079354949.996</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^12</f>
-        <v>19787580000000</v>
+        <f>'AEO Table 73'!S66*10^12*About!$A$66</f>
+        <v>21812047309799.996</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^12</f>
-        <v>19792101000000</v>
+        <f>'AEO Table 73'!T66*10^12*About!$A$66</f>
+        <v>21817030853309.996</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^12</f>
-        <v>19801369000000</v>
+        <f>'AEO Table 73'!U66*10^12*About!$A$66</f>
+        <v>21827247062389.996</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^12</f>
-        <v>19790552000000</v>
+        <f>'AEO Table 73'!V66*10^12*About!$A$66</f>
+        <v>21815323375119.996</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^12</f>
-        <v>19813770000000</v>
+        <f>'AEO Table 73'!W66*10^12*About!$A$66</f>
+        <v>21840916808699.996</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^12</f>
-        <v>19823812000000</v>
+        <f>'AEO Table 73'!X66*10^12*About!$A$66</f>
+        <v>21851986205719.996</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^12</f>
-        <v>19819962000000</v>
+        <f>'AEO Table 73'!Y66*10^12*About!$A$66</f>
+        <v>21847742312219.996</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^12</f>
-        <v>19817593000000</v>
+        <f>'AEO Table 73'!Z66*10^12*About!$A$66</f>
+        <v>21845130939829.996</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^12</f>
-        <v>19814734000000</v>
+        <f>'AEO Table 73'!AA66*10^12*About!$A$66</f>
+        <v>21841979435539.996</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^12</f>
-        <v>19808729000000</v>
+        <f>'AEO Table 73'!AB66*10^12*About!$A$66</f>
+        <v>21835360063989.996</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^12</f>
-        <v>19816940000000</v>
+        <f>'AEO Table 73'!AC66*10^12*About!$A$66</f>
+        <v>21844411131399.996</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^12</f>
-        <v>19822159000000</v>
+        <f>'AEO Table 73'!AD66*10^12*About!$A$66</f>
+        <v>21850164087289.996</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^12</f>
-        <v>19832388000000</v>
+        <f>'AEO Table 73'!AE66*10^12*About!$A$66</f>
+        <v>21861439616279.996</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^12</f>
-        <v>19856539000000</v>
+        <f>'AEO Table 73'!AF66*10^12*About!$A$66</f>
+        <v>21888061505089.996</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^12</f>
-        <v>19880623000000</v>
+        <f>'AEO Table 73'!AG66*10^12*About!$A$66</f>
+        <v>21914609539129.996</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^12</f>
-        <v>19899242000000</v>
+        <f>'AEO Table 73'!AH66*10^12*About!$A$66</f>
+        <v>21935133449019.996</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^12</f>
-        <v>19884989000000</v>
+        <f>'AEO Table 73'!AI66*10^12*About!$A$66</f>
+        <v>21919422224589.996</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^12</f>
-        <v>19887484000000</v>
+        <f>'AEO Table 73'!AJ66*10^12*About!$A$66</f>
+        <v>21922172488039.996</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="5">
-        <f>'AEO Table 73'!C54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!C54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="C4" s="5">
-        <f>'AEO Table 73'!D54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!D54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="D4" s="5">
-        <f>'AEO Table 73'!E54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!E54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="E4" s="5">
-        <f>'AEO Table 73'!F54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!F54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="F4" s="5">
-        <f>'AEO Table 73'!G54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!G54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="G4" s="5">
-        <f>'AEO Table 73'!H54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!H54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="H4" s="5">
-        <f>'AEO Table 73'!I54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!I54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="I4" s="5">
-        <f>'AEO Table 73'!J54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!J54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="J4" s="5">
-        <f>'AEO Table 73'!K54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!K54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="K4" s="5">
-        <f>'AEO Table 73'!L54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!L54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="L4" s="5">
-        <f>'AEO Table 73'!M54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!M54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="M4" s="5">
-        <f>'AEO Table 73'!N54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!N54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="N4" s="5">
-        <f>'AEO Table 73'!O54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!O54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="O4" s="5">
-        <f>'AEO Table 73'!P54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!P54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="P4" s="5">
-        <f>'AEO Table 73'!Q54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!Q54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="Q4" s="5">
-        <f>'AEO Table 73'!R54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!R54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="R4" s="5">
-        <f>'AEO Table 73'!S54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!S54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="S4" s="5">
-        <f>'AEO Table 73'!T54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!T54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="T4" s="5">
-        <f>'AEO Table 73'!U54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!U54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="U4" s="5">
-        <f>'AEO Table 73'!V54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!V54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="V4" s="5">
-        <f>'AEO Table 73'!W54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!W54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="W4" s="5">
-        <f>'AEO Table 73'!X54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!X54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="X4" s="5">
-        <f>'AEO Table 73'!Y54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!Y54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="Y4" s="5">
-        <f>'AEO Table 73'!Z54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!Z54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="Z4" s="5">
-        <f>'AEO Table 73'!AA54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AA54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AA4" s="5">
-        <f>'AEO Table 73'!AB54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AB54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AB4" s="5">
-        <f>'AEO Table 73'!AC54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AC54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AC4" s="5">
-        <f>'AEO Table 73'!AD54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AD54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AD4" s="5">
-        <f>'AEO Table 73'!AE54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AE54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AE4" s="5">
-        <f>'AEO Table 73'!AF54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AF54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AF4" s="5">
-        <f>'AEO Table 73'!AG54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AG54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AG4" s="5">
-        <f>'AEO Table 73'!AH54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AH54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AH4" s="5">
-        <f>'AEO Table 73'!AI54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AI54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
       <c r="AI4" s="5">
-        <f>'AEO Table 73'!AJ54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!AJ54*10^15/10^3*About!$A$67</f>
+        <v>36621343900000</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:AI5" si="0">10^12</f>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="AI5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
+        <f>10^12/About!$A$80*1000</f>
+        <v>947813394498.89111</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -16641,7 +16825,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -16748,7 +16932,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -16855,853 +17039,853 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^12</f>
-        <v>5056643000000</v>
+        <f>'AEO Table 73'!C32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42521770681818.188</v>
       </c>
       <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^12</f>
-        <v>5055260000000</v>
+        <f>'AEO Table 73'!D32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42510140909090.914</v>
       </c>
       <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^12</f>
-        <v>5055925000000</v>
+        <f>'AEO Table 73'!E32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42515732954545.453</v>
       </c>
       <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^12</f>
-        <v>5056270000000</v>
+        <f>'AEO Table 73'!F32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42518634090909.086</v>
       </c>
       <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^12</f>
-        <v>5055361000000</v>
+        <f>'AEO Table 73'!G32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42510990227272.727</v>
       </c>
       <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^12</f>
-        <v>5053336000000</v>
+        <f>'AEO Table 73'!H32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42493961818181.813</v>
       </c>
       <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^12</f>
-        <v>5050816000000</v>
+        <f>'AEO Table 73'!I32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42472770909090.914</v>
       </c>
       <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^12</f>
-        <v>5050002000000</v>
+        <f>'AEO Table 73'!J32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42465925909090.914</v>
       </c>
       <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^12</f>
-        <v>5049479000000</v>
+        <f>'AEO Table 73'!K32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42461527954545.453</v>
       </c>
       <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^12</f>
-        <v>5049067000000</v>
+        <f>'AEO Table 73'!L32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42458063409090.914</v>
       </c>
       <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^12</f>
-        <v>5048620000000</v>
+        <f>'AEO Table 73'!M32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42454304545454.547</v>
       </c>
       <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^12</f>
-        <v>5048186000000</v>
+        <f>'AEO Table 73'!N32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42450655000000</v>
       </c>
       <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^12</f>
-        <v>5047752000000</v>
+        <f>'AEO Table 73'!O32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42447005454545.453</v>
       </c>
       <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^12</f>
-        <v>5047827000000</v>
+        <f>'AEO Table 73'!P32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42447636136363.641</v>
       </c>
       <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^12</f>
-        <v>5047112000000</v>
+        <f>'AEO Table 73'!Q32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42441623636363.641</v>
       </c>
       <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^12</f>
-        <v>5046712000000</v>
+        <f>'AEO Table 73'!R32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42438260000000</v>
       </c>
       <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^12</f>
-        <v>5046464000000</v>
+        <f>'AEO Table 73'!S32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42436174545454.547</v>
       </c>
       <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^12</f>
-        <v>5045877000000</v>
+        <f>'AEO Table 73'!T32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42431238409090.914</v>
       </c>
       <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^12</f>
-        <v>5045186000000</v>
+        <f>'AEO Table 73'!U32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42425427727272.727</v>
       </c>
       <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^12</f>
-        <v>5044430000000</v>
+        <f>'AEO Table 73'!V32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42419070454545.453</v>
       </c>
       <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^12</f>
-        <v>5043581000000</v>
+        <f>'AEO Table 73'!W32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42411931136363.641</v>
       </c>
       <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^12</f>
-        <v>5042755000000</v>
+        <f>'AEO Table 73'!X32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42404985227272.727</v>
       </c>
       <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^12</f>
-        <v>5041688000000</v>
+        <f>'AEO Table 73'!Y32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42396012727272.727</v>
       </c>
       <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^12</f>
-        <v>5040498000000</v>
+        <f>'AEO Table 73'!Z32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42386005909090.914</v>
       </c>
       <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^12</f>
-        <v>5039160000000</v>
+        <f>'AEO Table 73'!AA32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42374754545454.547</v>
       </c>
       <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^12</f>
-        <v>5037867000000</v>
+        <f>'AEO Table 73'!AB32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42363881590909.086</v>
       </c>
       <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^12</f>
-        <v>5036224000000</v>
+        <f>'AEO Table 73'!AC32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42350065454545.453</v>
       </c>
       <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^12</f>
-        <v>5034602000000</v>
+        <f>'AEO Table 73'!AD32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42336425909090.914</v>
       </c>
       <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^12</f>
-        <v>5032873000000</v>
+        <f>'AEO Table 73'!AE32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42321886590909.086</v>
       </c>
       <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^12</f>
-        <v>5030945000000</v>
+        <f>'AEO Table 73'!AF32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42305673863636.359</v>
       </c>
       <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^12</f>
-        <v>5028548000000</v>
+        <f>'AEO Table 73'!AG32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42285517272727.273</v>
       </c>
       <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^12</f>
-        <v>5025918000000</v>
+        <f>'AEO Table 73'!AH32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42263401363636.359</v>
       </c>
       <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^12</f>
-        <v>5023038000000</v>
+        <f>'AEO Table 73'!AI32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42239183181818.188</v>
       </c>
       <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^12</f>
-        <v>5023036000000</v>
+        <f>'AEO Table 73'!AJ32*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>42239166363636.359</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!C19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!D19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!E19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!F19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!G19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!H19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!I19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!J19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!K19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!L19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!M19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!N19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!O19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!P19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!Q19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!R19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!S19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!T19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!U19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!V19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!W19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!X19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!Y19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!Z19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AA19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AB19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AC19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AD19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AE19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AF19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AG19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AH19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AI19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
       <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^12</f>
-        <v>5825000000000</v>
+        <f>'AEO Table 73'!AJ19*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>43155771495877.5</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^12</f>
-        <v>3997220000000</v>
+        <f>'AEO Table 73'!C29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33612986363636.363</v>
       </c>
       <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!D29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!E29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!F29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!G29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!H29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!I29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!J29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!K29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!L29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!M29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!N29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!O29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!P29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!Q29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!R29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!S29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!T29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!U29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!V29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!W29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!X29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!Y29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!Z29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AA29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AB29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AC29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AD29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AE29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AF29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AG29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AH29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AI29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
       <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^12</f>
-        <v>3989233000000</v>
+        <f>'AEO Table 73'!AJ29*10^12*About!$A$78/About!$A$71*1000</f>
+        <v>33545822954545.457</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!C18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!D18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!E18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!F18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!G18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!H18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!I18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!J18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!K18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!L18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!M18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!N18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!O18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!P18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!Q18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!R18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!S18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!T18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!U18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!V18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!W18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!X18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!Y18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!Z18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AA18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AB18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AC18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AD18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AE18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AF18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AG18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AH18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AI18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
       <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^12</f>
-        <v>5359000000000</v>
+        <f>'AEO Table 73'!AJ18*10^12*About!$A$78/About!$A$72*1000</f>
+        <v>39703309776207.305</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!C30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!D30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!E30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!F30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!G30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!H30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!I30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!J30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!K30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!L30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!M30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!N30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!O30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!P30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!Q30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!R30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!S30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!T30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!U30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!V30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!W30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!X30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!Y30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!Z30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AA30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AB30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AC30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AD30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AE30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AF30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AG30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AH30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AI30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
       <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^12</f>
-        <v>5670000000000</v>
+        <f>'AEO Table 73'!AJ30*10^12*About!$A$78/About!$A$73*1000</f>
+        <v>44138985148514.852</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B15" s="5">
         <f>About!$A$64*10^6</f>
@@ -17842,7 +18026,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -17949,712 +18133,712 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^12</f>
-        <v>5723000000000</v>
+        <f>'AEO Table 73'!C48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40860011350737.797</v>
       </c>
       <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^12</f>
-        <v>5719936000000</v>
+        <f>'AEO Table 73'!D48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40838135573212.258</v>
       </c>
       <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^12</f>
-        <v>5709374000000</v>
+        <f>'AEO Table 73'!E48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40762726969353.008</v>
       </c>
       <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^12</f>
-        <v>5702021000000</v>
+        <f>'AEO Table 73'!F48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40710229387060.156</v>
       </c>
       <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^12</f>
-        <v>5699036000000</v>
+        <f>'AEO Table 73'!G48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40688917639046.539</v>
       </c>
       <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^12</f>
-        <v>5702903000000</v>
+        <f>'AEO Table 73'!H48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40716526526674.234</v>
       </c>
       <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^12</f>
-        <v>5701469000000</v>
+        <f>'AEO Table 73'!I48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40706288320090.805</v>
       </c>
       <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^12</f>
-        <v>5697845000000</v>
+        <f>'AEO Table 73'!J48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40680414358683.313</v>
       </c>
       <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^12</f>
-        <v>5696569000000</v>
+        <f>'AEO Table 73'!K48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40671304211123.727</v>
       </c>
       <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^12</f>
-        <v>5695571000000</v>
+        <f>'AEO Table 73'!L48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40664178876276.953</v>
       </c>
       <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^12</f>
-        <v>5691691000000</v>
+        <f>'AEO Table 73'!M48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40636477173666.289</v>
       </c>
       <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^12</f>
-        <v>5689583000000</v>
+        <f>'AEO Table 73'!N48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40621426867196.367</v>
       </c>
       <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^12</f>
-        <v>5687317000000</v>
+        <f>'AEO Table 73'!O48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40605248501702.617</v>
       </c>
       <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^12</f>
-        <v>5686403000000</v>
+        <f>'AEO Table 73'!P48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40598722894438.141</v>
       </c>
       <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^12</f>
-        <v>5685931000000</v>
+        <f>'AEO Table 73'!Q48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40595352996594.781</v>
       </c>
       <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^12</f>
-        <v>5686055000000</v>
+        <f>'AEO Table 73'!R48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40596238308740.07</v>
       </c>
       <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^12</f>
-        <v>5686259000000</v>
+        <f>'AEO Table 73'!S48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40597694790011.352</v>
       </c>
       <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^12</f>
-        <v>5685382000000</v>
+        <f>'AEO Table 73'!T48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40591433348467.648</v>
       </c>
       <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^12</f>
-        <v>5685214000000</v>
+        <f>'AEO Table 73'!U48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40590233893303.063</v>
       </c>
       <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^12</f>
-        <v>5685896000000</v>
+        <f>'AEO Table 73'!V48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40595103110102.156</v>
       </c>
       <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^12</f>
-        <v>5686885000000</v>
+        <f>'AEO Table 73'!W48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40602164188422.25</v>
       </c>
       <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^12</f>
-        <v>5687922000000</v>
+        <f>'AEO Table 73'!X48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40609567968217.938</v>
       </c>
       <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^12</f>
-        <v>5690170000000</v>
+        <f>'AEO Table 73'!Y48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40625617820658.344</v>
       </c>
       <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^12</f>
-        <v>5690964000000</v>
+        <f>'AEO Table 73'!Z48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40631286674233.828</v>
       </c>
       <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^12</f>
-        <v>5689439000000</v>
+        <f>'AEO Table 73'!AA48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40620398762769.578</v>
       </c>
       <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^12</f>
-        <v>5688754000000</v>
+        <f>'AEO Table 73'!AB48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40615508127128.266</v>
       </c>
       <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^12</f>
-        <v>5686469000000</v>
+        <f>'AEO Table 73'!AC48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40599194108967.078</v>
       </c>
       <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^12</f>
-        <v>5684444000000</v>
+        <f>'AEO Table 73'!AD48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40584736390465.375</v>
       </c>
       <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^12</f>
-        <v>5683516000000</v>
+        <f>'AEO Table 73'!AE48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40578110828603.859</v>
       </c>
       <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^12</f>
-        <v>5682888000000</v>
+        <f>'AEO Table 73'!AF48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40573627150964.813</v>
       </c>
       <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^12</f>
-        <v>5681393000000</v>
+        <f>'AEO Table 73'!AG48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40562953427922.813</v>
       </c>
       <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^12</f>
-        <v>5679274000000</v>
+        <f>'AEO Table 73'!AH48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40547824585698.07</v>
       </c>
       <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^12</f>
-        <v>5678185000000</v>
+        <f>'AEO Table 73'!AI48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40540049545970.492</v>
       </c>
       <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^12</f>
-        <v>5676202000000</v>
+        <f>'AEO Table 73'!AJ48*10^12*About!$A$78/About!$A$74*1000</f>
+        <v>40525891691259.93</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!C41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!D41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!E41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!F41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!G41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!H41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!I41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!J41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!K41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!L41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!M41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!N41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!O41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!P41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!Q41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!R41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!S41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!T41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!U41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!V41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!W41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!X41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!Y41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!Z41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AA41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AB41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AC41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AD41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AE41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AF41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AG41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AH41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AI41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
       <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^12</f>
-        <v>6287000000000</v>
+        <f>'AEO Table 73'!AJ41*10^12*About!$A$78/About!$A$75*1000</f>
+        <v>43696386740331.492</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="C20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="D20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="E20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="F20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="G20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="H20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="I20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="J20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="K20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="L20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="M20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="N20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="O20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="P20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="Q20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="R20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="S20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="T20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="U20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="V20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="W20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="X20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="Y20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="Z20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AA20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AB20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AC20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AD20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AE20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AF20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AG20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AH20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
       <c r="AI20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$69/About!$A$76*1000</f>
+        <v>187648767950.10846</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="C21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="D21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="E21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="F21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="G21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="H21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="I21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="J21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="K21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="L21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="M21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="N21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="O21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="P21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Q21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="R21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="S21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="T21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="U21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="V21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="W21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="X21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Y21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Z21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AA21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AB21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AC21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AD21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AE21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AF21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AG21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AH21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AI21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B22" s="207">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
@@ -18792,6 +18976,9 @@
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
         <v>134509803921.56865</v>
       </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B24" s="208"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18805,7 +18992,7 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
+    <sheetView topLeftCell="U7" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
@@ -18818,7 +19005,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -18925,7 +19112,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B2" s="5">
         <f>About!$A$64</f>
@@ -19066,430 +19253,430 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^6</f>
-        <v>19437477</v>
+        <f>'AEO Table 73'!C66*10^6*About!$A$66</f>
+        <v>21426125.271869998</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^6</f>
-        <v>19706896</v>
+        <f>'AEO Table 73'!D66*10^6*About!$A$66</f>
+        <v>21723108.529759999</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^6</f>
-        <v>19588093</v>
+        <f>'AEO Table 73'!E66*10^6*About!$A$66</f>
+        <v>21592150.794829998</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^6</f>
-        <v>19676338</v>
+        <f>'AEO Table 73'!F66*10^6*About!$A$66</f>
+        <v>21689424.140779998</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^6</f>
-        <v>19593861</v>
+        <f>'AEO Table 73'!G66*10^6*About!$A$66</f>
+        <v>21598508.918909997</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^6</f>
-        <v>19763271</v>
+        <f>'AEO Table 73'!H66*10^6*About!$A$66</f>
+        <v>21785251.25601</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^6</f>
-        <v>19874037</v>
+        <f>'AEO Table 73'!I66*10^6*About!$A$66</f>
+        <v>21907349.725469999</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^6</f>
-        <v>19832983</v>
+        <f>'AEO Table 73'!J66*10^6*About!$A$66</f>
+        <v>21862095.490729999</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^6</f>
-        <v>19854052</v>
+        <f>'AEO Table 73'!K66*10^6*About!$A$66</f>
+        <v>21885320.060119998</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^6</f>
-        <v>19849159</v>
+        <f>'AEO Table 73'!L66*10^6*About!$A$66</f>
+        <v>21879926.457289997</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^6</f>
-        <v>19841606</v>
+        <f>'AEO Table 73'!M66*10^6*About!$A$66</f>
+        <v>21871600.709859997</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^6</f>
-        <v>19838451</v>
+        <f>'AEO Table 73'!N66*10^6*About!$A$66</f>
+        <v>21868122.921809997</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^6</f>
-        <v>19782232</v>
+        <f>'AEO Table 73'!O66*10^6*About!$A$66</f>
+        <v>21806152.155919999</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^6</f>
-        <v>19750866</v>
+        <f>'AEO Table 73'!P66*10^6*About!$A$66</f>
+        <v>21771577.100459997</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^6</f>
-        <v>19757530</v>
+        <f>'AEO Table 73'!Q66*10^6*About!$A$66</f>
+        <v>21778922.894299999</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^6</f>
-        <v>19792145</v>
+        <f>'AEO Table 73'!R66*10^6*About!$A$66</f>
+        <v>21817079.35495</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^6</f>
-        <v>19787580</v>
+        <f>'AEO Table 73'!S66*10^6*About!$A$66</f>
+        <v>21812047.309799999</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^6</f>
-        <v>19792101</v>
+        <f>'AEO Table 73'!T66*10^6*About!$A$66</f>
+        <v>21817030.853309996</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^6</f>
-        <v>19801369</v>
+        <f>'AEO Table 73'!U66*10^6*About!$A$66</f>
+        <v>21827247.06239</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^6</f>
-        <v>19790552</v>
+        <f>'AEO Table 73'!V66*10^6*About!$A$66</f>
+        <v>21815323.375119999</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^6</f>
-        <v>19813770</v>
+        <f>'AEO Table 73'!W66*10^6*About!$A$66</f>
+        <v>21840916.808699999</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^6</f>
-        <v>19823812</v>
+        <f>'AEO Table 73'!X66*10^6*About!$A$66</f>
+        <v>21851986.205719996</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^6</f>
-        <v>19819962</v>
+        <f>'AEO Table 73'!Y66*10^6*About!$A$66</f>
+        <v>21847742.31222</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^6</f>
-        <v>19817593</v>
+        <f>'AEO Table 73'!Z66*10^6*About!$A$66</f>
+        <v>21845130.939829998</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^6</f>
-        <v>19814734</v>
+        <f>'AEO Table 73'!AA66*10^6*About!$A$66</f>
+        <v>21841979.435539998</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^6</f>
-        <v>19808729</v>
+        <f>'AEO Table 73'!AB66*10^6*About!$A$66</f>
+        <v>21835360.063989997</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^6</f>
-        <v>19816940</v>
+        <f>'AEO Table 73'!AC66*10^6*About!$A$66</f>
+        <v>21844411.131399997</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^6</f>
-        <v>19822159</v>
+        <f>'AEO Table 73'!AD66*10^6*About!$A$66</f>
+        <v>21850164.087289996</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^6</f>
-        <v>19832388</v>
+        <f>'AEO Table 73'!AE66*10^6*About!$A$66</f>
+        <v>21861439.616279997</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^6</f>
-        <v>19856539</v>
+        <f>'AEO Table 73'!AF66*10^6*About!$A$66</f>
+        <v>21888061.505089998</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^6</f>
-        <v>19880623</v>
+        <f>'AEO Table 73'!AG66*10^6*About!$A$66</f>
+        <v>21914609.539129999</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^6</f>
-        <v>19899242</v>
+        <f>'AEO Table 73'!AH66*10^6*About!$A$66</f>
+        <v>21935133.449019998</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^6</f>
-        <v>19884989</v>
+        <f>'AEO Table 73'!AI66*10^6*About!$A$66</f>
+        <v>21919422.22459</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^6</f>
-        <v>19887484</v>
+        <f>'AEO Table 73'!AJ66*10^6*About!$A$66</f>
+        <v>21922172.488039996</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="5">
-        <f>'AEO Table 73'!C54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'AEO Table 73'!D54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="D4" s="5">
-        <f>'AEO Table 73'!E54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'AEO Table 73'!F54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="F4" s="5">
-        <f>'AEO Table 73'!G54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <f>'AEO Table 73'!H54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <f>'AEO Table 73'!I54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="I4" s="5">
-        <f>'AEO Table 73'!J54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <f>'AEO Table 73'!K54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="K4" s="5">
-        <f>'AEO Table 73'!L54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="L4" s="5">
-        <f>'AEO Table 73'!M54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="M4" s="5">
-        <f>'AEO Table 73'!N54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="N4" s="5">
-        <f>'AEO Table 73'!O54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="O4" s="5">
-        <f>'AEO Table 73'!P54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="P4" s="5">
-        <f>'AEO Table 73'!Q54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>'AEO Table 73'!R54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="R4" s="5">
-        <f>'AEO Table 73'!S54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="S4" s="5">
-        <f>'AEO Table 73'!T54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="T4" s="5">
-        <f>'AEO Table 73'!U54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="U4" s="5">
-        <f>'AEO Table 73'!V54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="V4" s="5">
-        <f>'AEO Table 73'!W54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="W4" s="5">
-        <f>'AEO Table 73'!X54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="X4" s="5">
-        <f>'AEO Table 73'!Y54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="Y4" s="5">
-        <f>'AEO Table 73'!Z54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="Z4" s="5">
-        <f>'AEO Table 73'!AA54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AA4" s="5">
-        <f>'AEO Table 73'!AB54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AB4" s="5">
-        <f>'AEO Table 73'!AC54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AC4" s="5">
-        <f>'AEO Table 73'!AD54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AD4" s="5">
-        <f>'AEO Table 73'!AE54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AE4" s="5">
-        <f>'AEO Table 73'!AF54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AF4" s="5">
-        <f>'AEO Table 73'!AG54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AG4" s="5">
-        <f>'AEO Table 73'!AH54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AH4" s="5">
-        <f>'AEO Table 73'!AI54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-      <c r="AI4" s="5">
-        <f>'AEO Table 73'!AJ54*10^6</f>
-        <v>1036999.9999999999</v>
+        <v>323</v>
+      </c>
+      <c r="B4" s="208">
+        <f>'AEO Table 73'!C54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="C4" s="208">
+        <f>'AEO Table 73'!D54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="D4" s="208">
+        <f>'AEO Table 73'!E54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="E4" s="208">
+        <f>'AEO Table 73'!F54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="F4" s="208">
+        <f>'AEO Table 73'!G54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="G4" s="208">
+        <f>'AEO Table 73'!H54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="H4" s="208">
+        <f>'AEO Table 73'!I54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="I4" s="208">
+        <f>'AEO Table 73'!J54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="J4" s="208">
+        <f>'AEO Table 73'!K54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="K4" s="208">
+        <f>'AEO Table 73'!L54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="L4" s="208">
+        <f>'AEO Table 73'!M54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="M4" s="208">
+        <f>'AEO Table 73'!N54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="N4" s="208">
+        <f>'AEO Table 73'!O54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="O4" s="208">
+        <f>'AEO Table 73'!P54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="P4" s="208">
+        <f>'AEO Table 73'!Q54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="Q4" s="208">
+        <f>'AEO Table 73'!R54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="R4" s="208">
+        <f>'AEO Table 73'!S54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="S4" s="208">
+        <f>'AEO Table 73'!T54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="T4" s="208">
+        <f>'AEO Table 73'!U54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="U4" s="208">
+        <f>'AEO Table 73'!V54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="V4" s="208">
+        <f>'AEO Table 73'!W54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="W4" s="208">
+        <f>'AEO Table 73'!X54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="X4" s="208">
+        <f>'AEO Table 73'!Y54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="Y4" s="208">
+        <f>'AEO Table 73'!Z54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="Z4" s="208">
+        <f>'AEO Table 73'!AA54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AA4" s="208">
+        <f>'AEO Table 73'!AB54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AB4" s="208">
+        <f>'AEO Table 73'!AC54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AC4" s="208">
+        <f>'AEO Table 73'!AD54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AD4" s="208">
+        <f>'AEO Table 73'!AE54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AE4" s="208">
+        <f>'AEO Table 73'!AF54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AF4" s="208">
+        <f>'AEO Table 73'!AG54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AG4" s="208">
+        <f>'AEO Table 73'!AH54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AH4" s="208">
+        <f>'AEO Table 73'!AI54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
+      </c>
+      <c r="AI4" s="208">
+        <f>'AEO Table 73'!AJ54*10^3*About!$A$67</f>
+        <v>36621.3439</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:AI5" si="0">10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="S5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="AI5" s="5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>349</v>
+      </c>
+      <c r="B5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="C5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="D5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="E5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="F5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="G5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="H5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="I5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="J5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="K5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="L5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="M5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="N5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="O5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="P5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="Q5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="R5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="S5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="T5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="U5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="V5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="W5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="X5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="Y5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="Z5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AA5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AB5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AC5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AD5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AE5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AF5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AG5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AH5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="AI5" s="208">
+        <f>10^6/About!$A$80*1000</f>
+        <v>947813.39449889108</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -19596,7 +19783,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -19703,7 +19890,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -19810,853 +19997,853 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^6/gal_per_barrel</f>
-        <v>120396.26190476191</v>
-      </c>
-      <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
-      </c>
-      <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
-      </c>
-      <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
-      </c>
-      <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
-      </c>
-      <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
-      </c>
-      <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
-      </c>
-      <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
-      </c>
-      <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
-      </c>
-      <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
-      </c>
-      <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
-      </c>
-      <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
-      </c>
-      <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
-      </c>
-      <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
-      </c>
-      <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
-      </c>
-      <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
-      </c>
-      <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
-      </c>
-      <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
-      </c>
-      <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
-      </c>
-      <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
-      </c>
-      <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
-      </c>
-      <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
-      </c>
-      <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
-      </c>
-      <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
-      </c>
-      <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
-      </c>
-      <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
-      </c>
-      <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
-      </c>
-      <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
-      </c>
-      <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
-      </c>
-      <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
-      </c>
-      <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
-      </c>
-      <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
-      </c>
-      <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
+        <v>325</v>
+      </c>
+      <c r="B10" s="208">
+        <f>'AEO Table 73'!C32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31805.342592945519</v>
+      </c>
+      <c r="C10" s="208">
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31796.64378055041</v>
+      </c>
+      <c r="D10" s="208">
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31800.826506683996</v>
+      </c>
+      <c r="E10" s="208">
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31802.99649242247</v>
+      </c>
+      <c r="F10" s="208">
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31797.279051737616</v>
+      </c>
+      <c r="G10" s="208">
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31784.542178924821</v>
+      </c>
+      <c r="H10" s="208">
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31768.691848313341</v>
+      </c>
+      <c r="I10" s="208">
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31763.571939933285</v>
+      </c>
+      <c r="J10" s="208">
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31760.282367350028</v>
+      </c>
+      <c r="K10" s="208">
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31757.690964091325</v>
+      </c>
+      <c r="L10" s="208">
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31754.879417351909</v>
+      </c>
+      <c r="M10" s="208">
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31752.149638191044</v>
+      </c>
+      <c r="N10" s="208">
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31749.419859030178</v>
+      </c>
+      <c r="O10" s="208">
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31749.891595060282</v>
+      </c>
+      <c r="P10" s="208">
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31745.394378239958</v>
+      </c>
+      <c r="Q10" s="208">
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31742.878452746074</v>
+      </c>
+      <c r="R10" s="208">
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31741.318578939867</v>
+      </c>
+      <c r="S10" s="208">
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31737.626458277588</v>
+      </c>
+      <c r="T10" s="208">
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31733.2801969869</v>
+      </c>
+      <c r="U10" s="208">
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31728.525097803456</v>
+      </c>
+      <c r="V10" s="208">
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31723.185045942686</v>
+      </c>
+      <c r="W10" s="208">
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31717.989659797811</v>
+      </c>
+      <c r="X10" s="208">
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31711.278428542872</v>
+      </c>
+      <c r="Y10" s="208">
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31703.793550198563</v>
+      </c>
+      <c r="Z10" s="208">
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31695.377779421513</v>
+      </c>
+      <c r="AA10" s="208">
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31687.245050262529</v>
+      </c>
+      <c r="AB10" s="208">
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31676.910886296395</v>
+      </c>
+      <c r="AC10" s="208">
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31666.708808418687</v>
+      </c>
+      <c r="AD10" s="208">
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31655.833720471368</v>
+      </c>
+      <c r="AE10" s="208">
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31643.70695959084</v>
+      </c>
+      <c r="AF10" s="208">
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31628.630276068729</v>
+      </c>
+      <c r="AG10" s="208">
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31612.088065946431</v>
+      </c>
+      <c r="AH10" s="208">
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31593.973402390453</v>
+      </c>
+      <c r="AI10" s="208">
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel/About!$A$69</f>
+        <v>31593.960822762987</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-      <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <v>326</v>
+      </c>
+      <c r="B11" s="208">
+        <f>'AEO Table 73'!C19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="C11" s="208">
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="D11" s="208">
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="E11" s="208">
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="F11" s="208">
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="G11" s="208">
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="H11" s="208">
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="I11" s="208">
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="J11" s="208">
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="K11" s="208">
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="L11" s="208">
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="M11" s="208">
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="N11" s="208">
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="O11" s="208">
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="P11" s="208">
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="Q11" s="208">
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="R11" s="208">
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="S11" s="208">
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="T11" s="208">
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="U11" s="208">
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="V11" s="208">
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="W11" s="208">
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="X11" s="208">
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="Y11" s="208">
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="Z11" s="208">
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AA11" s="208">
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AB11" s="208">
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AC11" s="208">
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AD11" s="208">
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AE11" s="208">
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AF11" s="208">
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AG11" s="208">
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AH11" s="208">
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
+      </c>
+      <c r="AI11" s="208">
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel/About!$A$69</f>
+        <v>36638.165004709183</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^6/gal_per_barrel</f>
-        <v>95171.904761904763</v>
-      </c>
-      <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
-      </c>
-      <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <v>327</v>
+      </c>
+      <c r="B12" s="208">
+        <f>'AEO Table 73'!C29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25141.769256673586</v>
+      </c>
+      <c r="C12" s="208">
+        <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="D12" s="208">
+        <f>'AEO Table 73'!E29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="E12" s="208">
+        <f>'AEO Table 73'!F29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="F12" s="208">
+        <f>'AEO Table 73'!G29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="G12" s="208">
+        <f>'AEO Table 73'!H29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="H12" s="208">
+        <f>'AEO Table 73'!I29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="I12" s="208">
+        <f>'AEO Table 73'!J29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="J12" s="208">
+        <f>'AEO Table 73'!K29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="K12" s="208">
+        <f>'AEO Table 73'!L29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="L12" s="208">
+        <f>'AEO Table 73'!M29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="M12" s="208">
+        <f>'AEO Table 73'!N29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="N12" s="208">
+        <f>'AEO Table 73'!O29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="O12" s="208">
+        <f>'AEO Table 73'!P29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="P12" s="208">
+        <f>'AEO Table 73'!Q29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="Q12" s="208">
+        <f>'AEO Table 73'!R29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="R12" s="208">
+        <f>'AEO Table 73'!S29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="S12" s="208">
+        <f>'AEO Table 73'!T29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="T12" s="208">
+        <f>'AEO Table 73'!U29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="U12" s="208">
+        <f>'AEO Table 73'!V29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="V12" s="208">
+        <f>'AEO Table 73'!W29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="W12" s="208">
+        <f>'AEO Table 73'!X29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="X12" s="208">
+        <f>'AEO Table 73'!Y29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="Y12" s="208">
+        <f>'AEO Table 73'!Z29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="Z12" s="208">
+        <f>'AEO Table 73'!AA29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AA12" s="208">
+        <f>'AEO Table 73'!AB29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AB12" s="208">
+        <f>'AEO Table 73'!AC29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AC12" s="208">
+        <f>'AEO Table 73'!AD29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AD12" s="208">
+        <f>'AEO Table 73'!AE29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AE12" s="208">
+        <f>'AEO Table 73'!AF29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AF12" s="208">
+        <f>'AEO Table 73'!AG29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AG12" s="208">
+        <f>'AEO Table 73'!AH29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AH12" s="208">
+        <f>'AEO Table 73'!AI29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
+      </c>
+      <c r="AI12" s="208">
+        <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel/About!$A$69</f>
+        <v>25091.532514374423</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
-      </c>
-      <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <v>328</v>
+      </c>
+      <c r="B13" s="208">
+        <f>'AEO Table 73'!C18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="C13" s="208">
+        <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="D13" s="208">
+        <f>'AEO Table 73'!E18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="E13" s="208">
+        <f>'AEO Table 73'!F18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="F13" s="208">
+        <f>'AEO Table 73'!G18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="G13" s="208">
+        <f>'AEO Table 73'!H18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="H13" s="208">
+        <f>'AEO Table 73'!I18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="I13" s="208">
+        <f>'AEO Table 73'!J18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="J13" s="208">
+        <f>'AEO Table 73'!K18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="K13" s="208">
+        <f>'AEO Table 73'!L18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="L13" s="208">
+        <f>'AEO Table 73'!M18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="M13" s="208">
+        <f>'AEO Table 73'!N18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="N13" s="208">
+        <f>'AEO Table 73'!O18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="O13" s="208">
+        <f>'AEO Table 73'!P18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="P13" s="208">
+        <f>'AEO Table 73'!Q18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="Q13" s="208">
+        <f>'AEO Table 73'!R18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="R13" s="208">
+        <f>'AEO Table 73'!S18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="S13" s="208">
+        <f>'AEO Table 73'!T18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="T13" s="208">
+        <f>'AEO Table 73'!U18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="U13" s="208">
+        <f>'AEO Table 73'!V18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="V13" s="208">
+        <f>'AEO Table 73'!W18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="W13" s="208">
+        <f>'AEO Table 73'!X18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="X13" s="208">
+        <f>'AEO Table 73'!Y18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="Y13" s="208">
+        <f>'AEO Table 73'!Z18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="Z13" s="208">
+        <f>'AEO Table 73'!AA18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AA13" s="208">
+        <f>'AEO Table 73'!AB18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AB13" s="208">
+        <f>'AEO Table 73'!AC18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AC13" s="208">
+        <f>'AEO Table 73'!AD18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AD13" s="208">
+        <f>'AEO Table 73'!AE18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AE13" s="208">
+        <f>'AEO Table 73'!AF18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AF13" s="208">
+        <f>'AEO Table 73'!AG18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AG13" s="208">
+        <f>'AEO Table 73'!AH18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AH13" s="208">
+        <f>'AEO Table 73'!AI18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
+      </c>
+      <c r="AI13" s="208">
+        <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel/About!$A$69</f>
+        <v>33707.111804332446</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-      <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <v>362</v>
+      </c>
+      <c r="B14" s="208">
+        <f>'AEO Table 73'!C30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="C14" s="208">
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="D14" s="208">
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="E14" s="208">
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="F14" s="208">
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="G14" s="208">
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="H14" s="208">
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="I14" s="208">
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="J14" s="208">
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="K14" s="208">
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="L14" s="208">
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="M14" s="208">
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="N14" s="208">
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="O14" s="208">
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="P14" s="208">
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="Q14" s="208">
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="R14" s="208">
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="S14" s="208">
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="T14" s="208">
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="U14" s="208">
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="V14" s="208">
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="W14" s="208">
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="X14" s="208">
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="Y14" s="208">
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="Z14" s="208">
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AA14" s="208">
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AB14" s="208">
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AC14" s="208">
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AD14" s="208">
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AE14" s="208">
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AF14" s="208">
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AG14" s="208">
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AH14" s="208">
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
+      </c>
+      <c r="AI14" s="208">
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel/About!$A$69</f>
+        <v>35663.243875828506</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B15" s="5">
         <f>About!$A$64</f>
@@ -20797,7 +20984,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -20904,712 +21091,712 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^6</f>
-        <v>5723000</v>
+        <f>'AEO Table 73'!C48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40860011.350737795</v>
       </c>
       <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^6</f>
-        <v>5719936</v>
+        <f>'AEO Table 73'!D48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40838135.573212251</v>
       </c>
       <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^6</f>
-        <v>5709374</v>
+        <f>'AEO Table 73'!E48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40762726.969353013</v>
       </c>
       <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^6</f>
-        <v>5702021</v>
+        <f>'AEO Table 73'!F48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40710229.387060165</v>
       </c>
       <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^6</f>
-        <v>5699036</v>
+        <f>'AEO Table 73'!G48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40688917.639046535</v>
       </c>
       <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^6</f>
-        <v>5702903</v>
+        <f>'AEO Table 73'!H48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40716526.526674226</v>
       </c>
       <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^6</f>
-        <v>5701469</v>
+        <f>'AEO Table 73'!I48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40706288.320090801</v>
       </c>
       <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^6</f>
-        <v>5697845</v>
+        <f>'AEO Table 73'!J48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40680414.35868331</v>
       </c>
       <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^6</f>
-        <v>5696569</v>
+        <f>'AEO Table 73'!K48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40671304.21112372</v>
       </c>
       <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^6</f>
-        <v>5695571</v>
+        <f>'AEO Table 73'!L48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40664178.876276962</v>
       </c>
       <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^6</f>
-        <v>5691691</v>
+        <f>'AEO Table 73'!M48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40636477.173666291</v>
       </c>
       <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^6</f>
-        <v>5689583</v>
+        <f>'AEO Table 73'!N48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40621426.867196366</v>
       </c>
       <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^6</f>
-        <v>5687317</v>
+        <f>'AEO Table 73'!O48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40605248.501702614</v>
       </c>
       <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^6</f>
-        <v>5686403</v>
+        <f>'AEO Table 73'!P48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40598722.894438133</v>
       </c>
       <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^6</f>
-        <v>5685931</v>
+        <f>'AEO Table 73'!Q48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40595352.996594779</v>
       </c>
       <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^6</f>
-        <v>5686055</v>
+        <f>'AEO Table 73'!R48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40596238.308740072</v>
       </c>
       <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^6</f>
-        <v>5686259</v>
+        <f>'AEO Table 73'!S48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40597694.790011354</v>
       </c>
       <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^6</f>
-        <v>5685382</v>
+        <f>'AEO Table 73'!T48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40591433.348467655</v>
       </c>
       <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^6</f>
-        <v>5685214</v>
+        <f>'AEO Table 73'!U48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40590233.893303066</v>
       </c>
       <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^6</f>
-        <v>5685896</v>
+        <f>'AEO Table 73'!V48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40595103.110102162</v>
       </c>
       <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^6</f>
-        <v>5686885</v>
+        <f>'AEO Table 73'!W48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40602164.188422248</v>
       </c>
       <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^6</f>
-        <v>5687922</v>
+        <f>'AEO Table 73'!X48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40609567.968217939</v>
       </c>
       <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^6</f>
-        <v>5690170</v>
+        <f>'AEO Table 73'!Y48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40625617.820658341</v>
       </c>
       <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^6</f>
-        <v>5690964</v>
+        <f>'AEO Table 73'!Z48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40631286.674233831</v>
       </c>
       <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^6</f>
-        <v>5689439</v>
+        <f>'AEO Table 73'!AA48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40620398.76276958</v>
       </c>
       <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^6</f>
-        <v>5688754</v>
+        <f>'AEO Table 73'!AB48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40615508.127128266</v>
       </c>
       <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^6</f>
-        <v>5686469</v>
+        <f>'AEO Table 73'!AC48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40599194.108967081</v>
       </c>
       <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^6</f>
-        <v>5684444</v>
+        <f>'AEO Table 73'!AD48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40584736.390465379</v>
       </c>
       <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^6</f>
-        <v>5683516</v>
+        <f>'AEO Table 73'!AE48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40578110.828603856</v>
       </c>
       <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^6</f>
-        <v>5682888</v>
+        <f>'AEO Table 73'!AF48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40573627.150964811</v>
       </c>
       <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^6</f>
-        <v>5681393</v>
+        <f>'AEO Table 73'!AG48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40562953.427922808</v>
       </c>
       <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^6</f>
-        <v>5679274</v>
+        <f>'AEO Table 73'!AH48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40547824.585698076</v>
       </c>
       <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^6</f>
-        <v>5678185</v>
+        <f>'AEO Table 73'!AI48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40540049.545970485</v>
       </c>
       <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^6</f>
-        <v>5676202</v>
+        <f>'AEO Table 73'!AJ48*10^6*About!$A$78/About!$A$74*1000</f>
+        <v>40525891.691259928</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!C41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!D41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!E41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!F41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!G41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!H41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!I41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!J41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!K41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!L41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!M41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!N41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!O41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!P41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!Q41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!R41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!S41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!T41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!U41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!V41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!W41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!X41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!Y41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!Z41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AA41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AB41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AC41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AD41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AE41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AF41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AG41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AH41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AI41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
       <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^6</f>
-        <v>6287000</v>
+        <f>'AEO Table 73'!AJ41*10^6*About!$A$78/About!$A$75*1000</f>
+        <v>43696386.740331493</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="C20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="D20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="E20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="F20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="G20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="H20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="I20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="J20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="K20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="L20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="M20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="N20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="O20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="P20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="R20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="S20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="T20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="U20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="V20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="W20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="X20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Y20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Z20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AA20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AB20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AC20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AD20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AE20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AF20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AG20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AH20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AI20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <v>360</v>
+      </c>
+      <c r="B20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="C20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="D20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="E20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="F20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="G20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="H20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="I20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="J20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="K20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="L20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="M20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="N20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="O20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="P20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="Q20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="R20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="S20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="T20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="U20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="V20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="W20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="X20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="Y20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="Z20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AA20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AB20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AC20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AD20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AE20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AF20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AG20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AH20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
+      </c>
+      <c r="AI20" s="208">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$69</f>
+        <v>346024.32810000004</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="C21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="D21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="E21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="F21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="G21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="H21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="I21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="J21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="K21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="L21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="M21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="N21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="O21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="P21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Q21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="R21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="S21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="T21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="U21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="V21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="W21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="X21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Y21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Z21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AA21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AB21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AC21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AD21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AE21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AF21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AG21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AH21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AI21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B22" s="5">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
@@ -21760,7 +21947,9 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -21770,7 +21959,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2">
         <v>2017</v>
@@ -22091,284 +22280,284 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="6">
-        <f>'AEO Table 73'!C32*10^6/gal_per_barrel</f>
-        <v>120396.26190476191</v>
+        <f>'AEO Table 73'!C32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51185.610048530943</v>
       </c>
       <c r="C4" s="6">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51171.610701790996</v>
       </c>
       <c r="D4" s="6">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51178.342130266821</v>
       </c>
       <c r="E4" s="6">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51181.834375115177</v>
       </c>
       <c r="F4" s="6">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51172.633069123418</v>
       </c>
       <c r="G4" s="6">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51152.135110230869</v>
       </c>
       <c r="H4" s="6">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51126.626539164594</v>
       </c>
       <c r="I4" s="6">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51118.38686581223</v>
       </c>
       <c r="J4" s="6">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51113.092825071093</v>
       </c>
       <c r="K4" s="6">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51108.922376150731</v>
       </c>
       <c r="L4" s="6">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51104.397641521122</v>
       </c>
       <c r="M4" s="6">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51100.004498726375</v>
       </c>
       <c r="N4" s="6">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51095.611355931629</v>
       </c>
       <c r="O4" s="6">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51096.370539594311</v>
       </c>
       <c r="P4" s="6">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51089.132988676698</v>
       </c>
       <c r="Q4" s="6">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51085.084009142367</v>
       </c>
       <c r="R4" s="6">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51082.573641831084</v>
       </c>
       <c r="S4" s="6">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51076.631764364451</v>
       </c>
       <c r="T4" s="6">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51069.6371522189</v>
       </c>
       <c r="U4" s="6">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51061.984580899014</v>
       </c>
       <c r="V4" s="6">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51053.390621837403</v>
       </c>
       <c r="W4" s="6">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51045.029479099016</v>
       </c>
       <c r="X4" s="6">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51034.228826191182</v>
       </c>
       <c r="Y4" s="6">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51022.183112076549</v>
       </c>
       <c r="Z4" s="6">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51008.639275534217</v>
       </c>
       <c r="AA4" s="6">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50995.550949189499</v>
       </c>
       <c r="AB4" s="6">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50978.919765752238</v>
       </c>
       <c r="AC4" s="6">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50962.50115374053</v>
       </c>
       <c r="AD4" s="6">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50944.999439703395</v>
       </c>
       <c r="AE4" s="6">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50925.483358347927</v>
       </c>
       <c r="AF4" s="6">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50901.219848488443</v>
       </c>
       <c r="AG4" s="6">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50874.597808050232</v>
       </c>
       <c r="AH4" s="6">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50845.445155403053</v>
       </c>
       <c r="AI4" s="6">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50845.424910505382</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="6">
-        <f>'AEO Table 73'!C19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!C19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="C5" s="6">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="D5" s="6">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="E5" s="6">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="F5" s="6">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="G5" s="6">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="H5" s="6">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="I5" s="6">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="J5" s="6">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="K5" s="6">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="L5" s="6">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="M5" s="6">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="N5" s="6">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="O5" s="6">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="P5" s="6">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Q5" s="6">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="R5" s="6">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="S5" s="6">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="T5" s="6">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="U5" s="6">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="V5" s="6">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="W5" s="6">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="X5" s="6">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Y5" s="6">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Z5" s="6">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AA5" s="6">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AB5" s="6">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AC5" s="6">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AD5" s="6">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AE5" s="6">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AF5" s="6">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AG5" s="6">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AH5" s="6">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AI5" s="6">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -22587,148 +22776,148 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="6">
-        <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!C30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="C8" s="6">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="D8" s="6">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="E8" s="6">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="F8" s="6">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="G8" s="6">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="H8" s="6">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="I8" s="6">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="J8" s="6">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="K8" s="6">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="L8" s="6">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="M8" s="6">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="N8" s="6">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="O8" s="6">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="P8" s="6">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Q8" s="6">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="R8" s="6">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="S8" s="6">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="T8" s="6">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="U8" s="6">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="V8" s="6">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="W8" s="6">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="X8" s="6">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Y8" s="6">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Z8" s="6">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AA8" s="6">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AB8" s="6">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AC8" s="6">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AD8" s="6">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AE8" s="6">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AF8" s="6">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AG8" s="6">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AH8" s="6">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AI8" s="6">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -22835,7 +23024,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -22942,7 +23131,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -23059,22 +23248,23 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>299</v>
       </c>
-      <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+      <c r="B2" s="207">
+        <v>947800000000</v>
       </c>
     </row>
   </sheetData>
